--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="91">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -306,14 +306,18 @@
     <t>森林&gt;=50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -365,16 +369,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,12 +389,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -903,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1089,6 +1097,76 @@
         <v>1.391317235365126E-3</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f>ROUND(C2,1)&amp;" ± "&amp;ROUND(D2,1)</f>
+        <v>21.5 ± 0.5</v>
+      </c>
+      <c r="F9" t="str">
+        <f>ROUND(F2,1)&amp;" ± "&amp;ROUND(G2,1)</f>
+        <v>1500.5 ± 36.5</v>
+      </c>
+      <c r="H9" t="str">
+        <f>ROUND(H2,3)&amp;" ± "&amp;ROUND(I2,3)</f>
+        <v>0.014 ± 0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" t="str">
+        <f t="shared" ref="C10" si="0">ROUND(C3,1)&amp;" ± "&amp;ROUND(D3,1)</f>
+        <v>18 ± 4</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10:H13" si="1">ROUND(F3,1)&amp;" ± "&amp;ROUND(G3,1)</f>
+        <v>1424 ± 63</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H13" si="2">ROUND(H3,3)&amp;" ± "&amp;ROUND(I3,3)</f>
+        <v>0.013 ± 0.003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="str">
+        <f t="shared" ref="C11" si="3">ROUND(C4,1)&amp;" ± "&amp;ROUND(D4,1)</f>
+        <v>16 ± 1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>1332 ± 30</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.012 ± 0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f t="shared" ref="C12" si="4">ROUND(C5,1)&amp;" ± "&amp;ROUND(D5,1)</f>
+        <v>29 ± 2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>1453.5 ± 62.5</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>0.02 ± 0.002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f t="shared" ref="C13" si="5">ROUND(C6,1)&amp;" ± "&amp;ROUND(D6,1)</f>
+        <v>26.5 ± 2.5</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>1365 ± 31</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>0.019 ± 0.001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,15 +1175,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1273,7 @@
         <v>8.9107238763189152</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1319,7 @@
         <v>0.56568542494923801</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1365,7 @@
         <v>1.1634641680267597E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1333,7 +1411,7 @@
         <v>5.4008332690428427</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1457,7 @@
         <v>0.56920997883030822</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1424,8 +1502,26 @@
         <f t="shared" si="1"/>
         <v>4.5772802169899447E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1470,8 +1566,26 @@
         <f t="shared" si="1"/>
         <v>3.2169861672068158</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1516,8 +1630,43 @@
         <f t="shared" si="1"/>
         <v>0.72180329730474346</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <f>SUMIFS($M$2:$M$22,$B$2:$B$22,S$7,$A$2:$A$22,$R9)</f>
+        <v>480.4</v>
+      </c>
+      <c r="T9">
+        <f>SUMIFS($N$2:$N$22,$B$2:$B$22,T$7,$A$2:$A$22,$R9)</f>
+        <v>21.898493098841296</v>
+      </c>
+      <c r="U9">
+        <f>SUMIFS($M$2:$M$22,$B$2:$B$22,U$7,$A$2:$A$22,$R9)</f>
+        <v>1.3</v>
+      </c>
+      <c r="V9">
+        <f>SUMIFS($N$2:$N$22,$B$2:$B$22,V$7,$A$2:$A$22,$R9)</f>
+        <v>0.44833023542919781</v>
+      </c>
+      <c r="W9">
+        <f>SUMIFS($M$2:$M$22,$B$2:$B$22,W$7,$A$2:$A$22,$R9)</f>
+        <v>2.604023603094135E-3</v>
+      </c>
+      <c r="X9">
+        <f>SUMIFS($N$2:$N$22,$B$2:$B$22,X$7,$A$2:$A$22,$R9)</f>
+        <v>8.769908286270278E-4</v>
+      </c>
+      <c r="Y9">
+        <f>W9/0.1/0.1/PI()</f>
+        <v>8.2888645672079847E-2</v>
+      </c>
+      <c r="Z9">
+        <f>X9/0.1/0.1/PI()</f>
+        <v>2.791548508444975E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1562,8 +1711,43 @@
         <f t="shared" si="1"/>
         <v>5.4050029731660494E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S15" si="2">SUMIFS($M$2:$M$22,$B$2:$B$22,S$7,$A$2:$A$22,$R10)</f>
+        <v>455.7</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T15" si="3">SUMIFS($N$2:$N$22,$B$2:$B$22,T$7,$A$2:$A$22,$R10)</f>
+        <v>8.9107238763189152</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U15" si="4">SUMIFS($M$2:$M$22,$B$2:$B$22,U$7,$A$2:$A$22,$R10)</f>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V15" si="5">SUMIFS($N$2:$N$22,$B$2:$B$22,V$7,$A$2:$A$22,$R10)</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10:W15" si="6">SUMIFS($M$2:$M$22,$B$2:$B$22,W$7,$A$2:$A$22,$R10)</f>
+        <v>8.7079792777263795E-3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ref="X10:X15" si="7">SUMIFS($N$2:$N$22,$B$2:$B$22,X$7,$A$2:$A$22,$R10)</f>
+        <v>1.1634641680267597E-3</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ref="Y10:Y15" si="8">W10/0.1/0.1/PI()</f>
+        <v>0.2771835892783891</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z15" si="9">X10/0.1/0.1/PI()</f>
+        <v>3.7034214690351661E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1608,8 +1792,43 @@
         <f t="shared" si="1"/>
         <v>3.1662280397975127</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>150.1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>5.4008332690428427</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>0.56920997883030822</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>3.1642921345144973E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
+        <v>4.5772802169899447E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="8"/>
+        <v>1.0072254691895737</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>0.14569935449013857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1654,8 +1873,43 @@
         <f t="shared" si="1"/>
         <v>0.9797958971132712</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>116.4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>3.0731091747609613</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>2.6514063629409473E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>4.1351706882526915E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="8"/>
+        <v>0.8439688576147113</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="9"/>
+        <v>0.13162657111282616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1700,8 +1954,43 @@
         <f t="shared" si="1"/>
         <v>1.2872754306953798E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>148.9</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>3.2169861672068158</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>6.3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>0.72180329730474346</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>4.2808111949454233E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>5.4050029731660494E-3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="8"/>
+        <v>1.3626245242373745</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="9"/>
+        <v>0.17204658812115353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1746,8 +2035,43 @@
         <f t="shared" si="1"/>
         <v>21.898493098841296</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>3.1662280397975127</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>0.9797958971132712</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>4.1677702355668464E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>1.2872754306953798E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="8"/>
+        <v>1.3266424693234733</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>0.40975249583183637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1792,8 +2116,43 @@
         <f t="shared" si="1"/>
         <v>0.44833023542919781</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>24.220239470327289</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>22.2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>1.7251086922278258</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>1.5720066292514281E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>1.2332392465286852E-3</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>0.50038525123718647</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="9"/>
+        <v>3.9255224419992955E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +2198,7 @@
         <v>8.769908286270278E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1885,7 +2244,7 @@
         <v>3.0731091747609613</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1930,8 +2289,27 @@
         <f t="shared" si="1"/>
         <v>0.42426406871192851</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" t="str">
+        <f>ROUND(S9,1)&amp;" ± "&amp;ROUND(T9,1)</f>
+        <v>480.4 ± 21.9</v>
+      </c>
+      <c r="U18" t="str">
+        <f>ROUND(U9,1)&amp;" ± "&amp;ROUND(V9,1)</f>
+        <v>1.3 ± 0.4</v>
+      </c>
+      <c r="W18" t="str">
+        <f>ROUND(W9,3)&amp;" ± "&amp;ROUND(X9,3)</f>
+        <v>0.003 ± 0.001</v>
+      </c>
+      <c r="Y18" t="str">
+        <f>ROUND(Y9,3)&amp;" ± "&amp;ROUND(Z9,3)</f>
+        <v>0.083 ± 0.028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1976,8 +2354,27 @@
         <f t="shared" si="1"/>
         <v>4.1351706882526915E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" ref="S19:U24" si="10">ROUND(S10,1)&amp;" ± "&amp;ROUND(T10,1)</f>
+        <v>455.7 ± 8.9</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="10"/>
+        <v>4 ± 0.6</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" ref="W19:Y24" si="11">ROUND(W10,3)&amp;" ± "&amp;ROUND(X10,3)</f>
+        <v>0.009 ± 0.001</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="11"/>
+        <v>0.277 ± 0.037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1989,39 +2386,39 @@
         <v>1537</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:L21" si="2">SUMIF($B$2:$B$19,$B20,D$2:D$19)</f>
+        <f t="shared" ref="D20:L21" si="12">SUMIF($B$2:$B$19,$B20,D$2:D$19)</f>
         <v>1464</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1487</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1361</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1362</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1302</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1516</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1391</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1396</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1334</v>
       </c>
       <c r="M20">
@@ -2032,8 +2429,27 @@
         <f t="shared" si="1"/>
         <v>24.220239470327289</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="10"/>
+        <v>150.1 ± 5.4</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="10"/>
+        <v>4.6 ± 0.6</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="11"/>
+        <v>0.032 ± 0.005</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="11"/>
+        <v>1.007 ± 0.146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2045,39 +2461,39 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="M21">
@@ -2088,8 +2504,27 @@
         <f t="shared" si="1"/>
         <v>1.7251086922278258</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="10"/>
+        <v>116.4 ± 3.1</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="10"/>
+        <v>3 ± 0.4</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="11"/>
+        <v>0.027 ± 0.004</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="11"/>
+        <v>0.844 ± 0.132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2101,39 +2536,39 @@
         <v>1.3662979830839297E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:L22" si="3">D21/D20</f>
+        <f t="shared" ref="D22:L22" si="13">D21/D20</f>
         <v>1.5027322404371584E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>9.4149293880295901E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1.6164584864070537E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1.1013215859030838E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1.3056835637480798E-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1.7810026385224276E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.2286125089863409E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.0773638968481375E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>1.7991004497751123E-2</v>
       </c>
       <c r="M22">
@@ -2144,8 +2579,72 @@
         <f t="shared" si="1"/>
         <v>1.2332392465286852E-3</v>
       </c>
+      <c r="R22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="10"/>
+        <v>148.9 ± 3.2</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="10"/>
+        <v>6.3 ± 0.7</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="11"/>
+        <v>0.043 ± 0.005</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="11"/>
+        <v>1.363 ± 0.172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="10"/>
+        <v>63.5 ± 3.2</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="10"/>
+        <v>3 ± 1</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="11"/>
+        <v>0.042 ± 0.013</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="11"/>
+        <v>1.327 ± 0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="10"/>
+        <v>1415 ± 24.2</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="10"/>
+        <v>22.2 ± 1.7</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="11"/>
+        <v>0.016 ± 0.001</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="11"/>
+        <v>0.5 ± 0.039</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="R23:R28">
+    <sortCondition descending="1" ref="R23:R28"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6344,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6360,7 +6859,7 @@
     <col min="23" max="26" width="9.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -6413,7 +6912,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6462,7 +6961,7 @@
         <v>4.7251743594573021</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -6511,7 +7010,7 @@
         <v>0.13816985594155146</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -6560,7 +7059,7 @@
         <v>1.0300310459784262E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -6609,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -6658,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -6707,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -6756,7 +7255,7 @@
         <v>0.12060453783110513</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -6854,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -6921,7 +7420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6976,7 +7475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -7043,16 +7542,24 @@
         <f>SUMIFS($O:$O,$B:$B,$T13,$C:$C,X$11)</f>
         <v>1.6448266004216239</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="13">
         <f>SUMIFS($N:$N,$B:$B,$T13,$C:$C,Y$11)</f>
         <v>1.5720066292514281E-2</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="13">
         <f>SUMIFS($O:$O,$B:$B,$T13,$C:$C,Z$11)</f>
         <v>1.1758474851545234E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <f>Y13/0.1/0.1/PI()</f>
+        <v>0.50038525123718647</v>
+      </c>
+      <c r="AB13">
+        <f>Z13/0.1/0.1/PI()</f>
+        <v>3.7428387916903276E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -7127,8 +7634,16 @@
         <f t="shared" ref="Z14:Z20" si="7">SUMIFS($O:$O,$B:$B,$T14,$C:$C,Z$11)</f>
         <v>2.2147470210004913E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <f t="shared" ref="AA14:AB20" si="8">Y14/0.1/0.1/PI()</f>
+        <v>0.57125862954572426</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>7.0497587218055574E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -7203,8 +7718,16 @@
         <f t="shared" si="7"/>
         <v>1.3194678577885712E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0.23725895410880787</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>4.1999966363585016E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -7279,8 +7802,16 @@
         <f t="shared" si="7"/>
         <v>3.1867225827054021E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>0.56877153042939055</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>0.10143653026002719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -7355,8 +7886,16 @@
         <f t="shared" si="7"/>
         <v>5.4881823225296422E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>0.64521106779891912</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>0.17469426904403021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -7423,16 +7962,24 @@
         <f t="shared" si="5"/>
         <v>0.13816985594155146</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="13">
         <f t="shared" si="6"/>
         <v>1.723930220880143E-3</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="13">
         <f t="shared" si="7"/>
         <v>7.9809671652279702E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>5.4874403239715534E-2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>2.5404207500002857E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -7507,8 +8054,16 @@
         <f t="shared" si="7"/>
         <v>1.6611513197239188E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <f t="shared" si="8"/>
+        <v>1.9432340992787688E-2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>5.2876088751537429E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -7583,8 +8138,16 @@
         <f t="shared" si="7"/>
         <v>6.6226155806174615E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <f t="shared" si="8"/>
+        <v>0.27031293783306082</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>2.1080440117053428E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -7633,7 +8196,7 @@
         <v>0.53000857625994213</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -7682,7 +8245,7 @@
         <v>3.1867225827054021E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -7731,7 +8294,7 @@
         <v>2.7317992738719425</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -7780,7 +8343,7 @@
         <v>0.80283588269674044</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -7828,8 +8391,27 @@
         <f t="shared" si="1"/>
         <v>5.4881823225296422E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" t="str">
+        <f>ROUND(U13,1)&amp;" ± "&amp;ROUND(V13,1)</f>
+        <v>1415 ± 23.1</v>
+      </c>
+      <c r="W25" t="str">
+        <f>ROUND(W13,1)&amp;" ± "&amp;ROUND(X13,1)</f>
+        <v>22.2 ± 1.6</v>
+      </c>
+      <c r="Y25" t="str">
+        <f>ROUND(Y13,3)&amp;" ± "&amp;ROUND(Z13,3)</f>
+        <v>0.016 ± 0.001</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>ROUND(AA13,3)&amp;" ± "&amp;ROUND(AB13,3)</f>
+        <v>0.5 ± 0.037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -7877,8 +8459,27 @@
         <f t="shared" si="1"/>
         <v>12.951272313771128</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ref="U26:W32" si="9">ROUND(U14,1)&amp;" ± "&amp;ROUND(V14,1)</f>
+        <v>1098.2 ± 21.1</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="9"/>
+        <v>15.5 ± 1.3</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" ref="Y26:AA32" si="10">ROUND(Y14,3)&amp;" ± "&amp;ROUND(Z14,3)</f>
+        <v>0.018 ± 0.002</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="10"/>
+        <v>0.571 ± 0.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -7926,8 +8527,27 @@
         <f t="shared" si="1"/>
         <v>0.19306145983268452</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="9"/>
+        <v>138.1 ± 4.1</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="9"/>
+        <v>1 ± 0.2</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="10"/>
+        <v>0.007 ± 0.001</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="10"/>
+        <v>0.237 ± 0.042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -7975,8 +8595,27 @@
         <f t="shared" si="1"/>
         <v>1.6611513197239188E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="9"/>
+        <v>164 ± 3.3</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="9"/>
+        <v>2.9 ± 0.5</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="10"/>
+        <v>0.018 ± 0.003</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="10"/>
+        <v>0.569 ± 0.101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -7991,39 +8630,39 @@
         <v>1537</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:M30" si="8">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
+        <f t="shared" ref="E29:M30" si="11">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
         <v>1464</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1487</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1361</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1362</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1302</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1516</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1391</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1396</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1334</v>
       </c>
       <c r="N29" s="10">
@@ -8034,8 +8673,27 @@
         <f t="shared" si="1"/>
         <v>23.093092237526548</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="9"/>
+        <v>186.9 ± 4.1</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="9"/>
+        <v>3.1 ± 0.8</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="10"/>
+        <v>0.02 ± 0.005</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="10"/>
+        <v>0.645 ± 0.175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8050,39 +8708,39 @@
         <v>21</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="K30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="N30">
@@ -8093,8 +8751,27 @@
         <f t="shared" si="1"/>
         <v>1.6448266004216239</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
+        <v>88</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="9"/>
+        <v>172.2 ± 5.8</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="9"/>
+        <v>0.3 ± 0.1</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="10"/>
+        <v>0.002 ± 0.001</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="10"/>
+        <v>0.055 ± 0.025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -8109,42 +8786,42 @@
         <v>1.3662979830839297E-2</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:M31" si="9">E30/E29</f>
+        <f t="shared" ref="E31:M31" si="12">E30/E29</f>
         <v>1.5027322404371584E-2</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.4149293880295901E-3</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6164584864070537E-2</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1013215859030838E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3056835637480798E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7810026385224276E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2286125089863409E-2</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.0773638968481375E-2</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7991004497751123E-2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="14">
         <f t="shared" si="0"/>
         <v>1.5720066292514281E-2</v>
       </c>
@@ -8152,8 +8829,27 @@
         <f t="shared" si="1"/>
         <v>1.1758474851545234E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="9"/>
+        <v>1150.9 ± 13</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.7 ± 0.2</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="10"/>
+        <v>0.001 ± 0</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="10"/>
+        <v>0.019 ± 0.005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -8164,43 +8860,43 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D31:M34" si="10">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
+        <f t="shared" ref="D32:M33" si="13">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
         <v>180</v>
       </c>
       <c r="E32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>216</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>164</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>159</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>154</v>
       </c>
       <c r="K32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>149</v>
       </c>
       <c r="L32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>171</v>
       </c>
       <c r="M32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>164</v>
       </c>
       <c r="N32">
@@ -8211,6 +8907,25 @@
         <f t="shared" si="1"/>
         <v>5.8275209137333599</v>
       </c>
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="9"/>
+        <v>2738.1 ± 33.2</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="9"/>
+        <v>23.2 ± 1.8</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.008 ± 0.001</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.27 ± 0.021</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -8223,43 +8938,43 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N33">
@@ -8286,42 +9001,42 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="11">E33/E32</f>
+        <f t="shared" ref="E34" si="14">E33/E32</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="12">F33/F32</f>
+        <f t="shared" ref="F34" si="15">F33/F32</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="13">G33/G32</f>
+        <f t="shared" ref="G34" si="16">G33/G32</f>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="14">H33/H32</f>
+        <f t="shared" ref="H34" si="17">H33/H32</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="15">I33/I32</f>
+        <f t="shared" ref="I34" si="18">I33/I32</f>
         <v>6.2893081761006293E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="16">J33/J32</f>
+        <f t="shared" ref="J34" si="19">J33/J32</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34" si="17">K33/K32</f>
+        <f t="shared" ref="K34" si="20">K33/K32</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="18">L33/L32</f>
+        <f t="shared" ref="L34" si="21">L33/L32</f>
         <v>5.8479532163742687E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34" si="19">M33/M32</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
+        <f t="shared" ref="M34" si="22">M33/M32</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
         <f t="shared" si="0"/>
         <v>1.723930220880143E-3</v>
       </c>
@@ -8342,47 +9057,47 @@
         <v>2869</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:M36" si="20">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
+        <f t="shared" ref="E35:M36" si="23">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
         <v>2740</v>
       </c>
       <c r="F35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2913</v>
       </c>
       <c r="G35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2714</v>
       </c>
       <c r="H35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2659</v>
       </c>
       <c r="I35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2554</v>
       </c>
       <c r="J35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2853</v>
       </c>
       <c r="K35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2631</v>
       </c>
       <c r="L35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2785</v>
       </c>
       <c r="M35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2663</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" ref="N35:N37" si="21">AVERAGE(D35:M35)</f>
+        <f t="shared" ref="N35:N37" si="24">AVERAGE(D35:M35)</f>
         <v>2738.1</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35:O37" si="22">_xlfn.STDEV.P(D35:N35)/SQRT(10)</f>
+        <f t="shared" ref="O35:O37" si="25">_xlfn.STDEV.P(D35:N35)/SQRT(10)</f>
         <v>33.162259490955293</v>
       </c>
     </row>
@@ -8398,47 +9113,47 @@
         <v>21</v>
       </c>
       <c r="E36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="F36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="G36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="J36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="L36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="M36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>23.2</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.7827455842553146</v>
       </c>
     </row>
@@ -8454,47 +9169,47 @@
         <v>7.3196235622168E-3</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:M37" si="23">E36/E35</f>
+        <f t="shared" ref="E37:M37" si="26">E36/E35</f>
         <v>8.3941605839416063E-3</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4.8060418812221079E-3</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.6412185031966908E-3</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.4393108848864525E-3</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0164738871363477E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.2162675788673508E-2</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.1131059245960502E-2</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9.3879083740142696E-3</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8.4921313966661843E-3</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.6226155806174615E-4</v>
       </c>
     </row>

--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,7 @@
         <v>18 ± 4</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10:H13" si="1">ROUND(F3,1)&amp;" ± "&amp;ROUND(G3,1)</f>
+        <f t="shared" ref="F10:F13" si="1">ROUND(F3,1)&amp;" ± "&amp;ROUND(G3,1)</f>
         <v>1424 ± 63</v>
       </c>
       <c r="H10" t="str">
@@ -6845,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O37" sqref="A1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="93">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -309,6 +309,12 @@
   <si>
     <t>TW</t>
   </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +325,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +346,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,10 +379,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,9 +415,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,15 +1193,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="32" max="32" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>8.9107238763189152</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1340,7 @@
         <v>0.56568542494923801</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1386,7 @@
         <v>1.1634641680267597E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>5.4008332690428427</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1478,7 @@
         <v>0.56920997883030822</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1585,7 +1606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>2.791548508444975E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1747,7 +1768,7 @@
         <v>3.7034214690351661E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>0.14569935449013857</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +1930,7 @@
         <v>0.13162657111282616</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1990,7 +2011,7 @@
         <v>0.17204658812115353</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>0.40975249583183637</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>3.9255224419992955E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2197,8 +2218,17 @@
         <f t="shared" si="1"/>
         <v>8.769908286270278E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AE16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2243,8 +2273,21 @@
         <f t="shared" si="1"/>
         <v>3.0731091747609613</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AE17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF17">
+        <v>6167.5657119999996</v>
+      </c>
+      <c r="AH17">
+        <v>480.4</v>
+      </c>
+      <c r="AJ17" s="15">
+        <f>AH17*0.1*0.1*PI()/AF17</f>
+        <v>2.4470288299451794E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2308,8 +2351,21 @@
         <f>ROUND(Y9,3)&amp;" ± "&amp;ROUND(Z9,3)</f>
         <v>0.083 ± 0.028</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AE18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18">
+        <v>4177.9869639999997</v>
+      </c>
+      <c r="AH18">
+        <v>455.7</v>
+      </c>
+      <c r="AJ18" s="15">
+        <f t="shared" ref="AJ18:AJ23" si="10">AH18*0.1*0.1*PI()/AF18</f>
+        <v>3.4265874560561911E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2358,23 +2414,36 @@
         <v>35</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" ref="S19:U24" si="10">ROUND(S10,1)&amp;" ± "&amp;ROUND(T10,1)</f>
+        <f t="shared" ref="S19:U24" si="11">ROUND(S10,1)&amp;" ± "&amp;ROUND(T10,1)</f>
         <v>455.7 ± 8.9</v>
       </c>
       <c r="U19" t="str">
+        <f t="shared" si="11"/>
+        <v>4 ± 0.6</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" ref="W19:Y24" si="12">ROUND(W10,3)&amp;" ± "&amp;ROUND(X10,3)</f>
+        <v>0.009 ± 0.001</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="12"/>
+        <v>0.277 ± 0.037</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19">
+        <v>1424.349935</v>
+      </c>
+      <c r="AH19">
+        <v>150.1</v>
+      </c>
+      <c r="AJ19" s="15">
         <f t="shared" si="10"/>
-        <v>4 ± 0.6</v>
-      </c>
-      <c r="W19" t="str">
-        <f t="shared" ref="W19:Y24" si="11">ROUND(W10,3)&amp;" ± "&amp;ROUND(X10,3)</f>
-        <v>0.009 ± 0.001</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="11"/>
-        <v>0.277 ± 0.037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>3.3106545359152069E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2386,39 +2455,39 @@
         <v>1537</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:L21" si="12">SUMIF($B$2:$B$19,$B20,D$2:D$19)</f>
+        <f t="shared" ref="D20:L21" si="13">SUMIF($B$2:$B$19,$B20,D$2:D$19)</f>
         <v>1464</v>
       </c>
       <c r="E20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1487</v>
       </c>
       <c r="F20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1361</v>
       </c>
       <c r="G20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1362</v>
       </c>
       <c r="H20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1302</v>
       </c>
       <c r="I20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1516</v>
       </c>
       <c r="J20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1391</v>
       </c>
       <c r="K20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1396</v>
       </c>
       <c r="L20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1334</v>
       </c>
       <c r="M20">
@@ -2433,23 +2502,36 @@
         <v>37</v>
       </c>
       <c r="S20" t="str">
+        <f t="shared" si="11"/>
+        <v>150.1 ± 5.4</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="11"/>
+        <v>4.6 ± 0.6</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="12"/>
+        <v>0.032 ± 0.005</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="12"/>
+        <v>1.007 ± 0.146</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20">
+        <v>3236.5496349999999</v>
+      </c>
+      <c r="AH20">
+        <v>116.4</v>
+      </c>
+      <c r="AJ20" s="15">
         <f t="shared" si="10"/>
-        <v>150.1 ± 5.4</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="10"/>
-        <v>4.6 ± 0.6</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" si="11"/>
-        <v>0.032 ± 0.005</v>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="11"/>
-        <v>1.007 ± 0.146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1.1298494573461159E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2461,39 +2543,39 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="E21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="F21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="G21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="H21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="K21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="L21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="M21">
@@ -2508,23 +2590,36 @@
         <v>41</v>
       </c>
       <c r="S21" t="str">
+        <f t="shared" si="11"/>
+        <v>116.4 ± 3.1</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="11"/>
+        <v>3 ± 0.4</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="12"/>
+        <v>0.027 ± 0.004</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="12"/>
+        <v>0.844 ± 0.132</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21">
+        <v>3674.9536549999998</v>
+      </c>
+      <c r="AH21">
+        <v>148.9</v>
+      </c>
+      <c r="AJ21" s="15">
         <f t="shared" si="10"/>
-        <v>116.4 ± 3.1</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="10"/>
-        <v>3 ± 0.4</v>
-      </c>
-      <c r="W21" t="str">
-        <f t="shared" si="11"/>
-        <v>0.027 ± 0.004</v>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="11"/>
-        <v>0.844 ± 0.132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1.272895361504961E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2536,39 +2631,39 @@
         <v>1.3662979830839297E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:L22" si="13">D21/D20</f>
+        <f t="shared" ref="D22:L22" si="14">D21/D20</f>
         <v>1.5027322404371584E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4149293880295901E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6164584864070537E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1013215859030838E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3056835637480798E-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7810026385224276E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2286125089863409E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0773638968481375E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7991004497751123E-2</v>
       </c>
       <c r="M22">
@@ -2583,61 +2678,85 @@
         <v>38</v>
       </c>
       <c r="S22" t="str">
+        <f t="shared" si="11"/>
+        <v>148.9 ± 3.2</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="11"/>
+        <v>6.3 ± 0.7</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="12"/>
+        <v>0.043 ± 0.005</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="12"/>
+        <v>1.363 ± 0.172</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF22">
+        <v>2854.7790019999998</v>
+      </c>
+      <c r="AH22">
+        <v>63.5</v>
+      </c>
+      <c r="AJ22" s="15">
         <f t="shared" si="10"/>
-        <v>148.9 ± 3.2</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="10"/>
-        <v>6.3 ± 0.7</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" si="11"/>
-        <v>0.043 ± 0.005</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="11"/>
-        <v>1.363 ± 0.172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>6.9879711656556419E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="R23" t="s">
         <v>39</v>
       </c>
       <c r="S23" t="str">
+        <f t="shared" si="11"/>
+        <v>63.5 ± 3.2</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="11"/>
+        <v>3 ± 1</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="12"/>
+        <v>0.042 ± 0.013</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="12"/>
+        <v>1.327 ± 0.41</v>
+      </c>
+      <c r="AF23">
+        <f>SUM(AF17:AF22)</f>
+        <v>21536.184902999998</v>
+      </c>
+      <c r="AH23">
+        <v>1415</v>
+      </c>
+      <c r="AJ23" s="15">
         <f t="shared" si="10"/>
-        <v>63.5 ± 3.2</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="10"/>
-        <v>3 ± 1</v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="11"/>
-        <v>0.042 ± 0.013</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="11"/>
-        <v>1.327 ± 0.41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>2.0641323543847908E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>90</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1415 ± 24.2</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22.2 ± 1.7</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.016 ± 0.001</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5 ± 0.039</v>
       </c>
     </row>
@@ -6845,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O37" sqref="A1:O37"/>
+    <sheetView topLeftCell="T8" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\tmp\Macaca-population-trend\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6964,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="T8" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="R13" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7076,8 +7076,8 @@
         <v>134</v>
       </c>
       <c r="O2" s="5">
-        <f>_xlfn.STDEV.P(D2:N2)/SQRT(10)</f>
-        <v>4.7251743594573021</v>
+        <f t="shared" ref="O2:O12" si="0">_xlfn.STDEV.P(D2:M2)/SQRT(10)</f>
+        <v>4.9558046773455464</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -7121,12 +7121,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N34" si="0">AVERAGE(D3:M3)</f>
+        <f t="shared" ref="N3:N34" si="1">AVERAGE(D3:M3)</f>
         <v>0.3</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O34" si="1">_xlfn.STDEV.P(D3:N3)/SQRT(10)</f>
-        <v>0.13816985594155146</v>
+        <f t="shared" si="0"/>
+        <v>0.14491376746189438</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -7170,12 +7170,12 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2238355247060641E-3</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>2.2238355247060641E-3</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0300310459784262E-3</v>
+        <v>1.0803056749121296E-3</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -7219,11 +7219,11 @@
         <v>5</v>
       </c>
       <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7268,11 +7268,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7317,11 +7317,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7366,12 +7366,12 @@
         <v>4</v>
       </c>
       <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.12060453783110513</v>
+        <v>0.12649110640673517</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -7415,11 +7415,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,11 +7464,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
         <v>26</v>
       </c>
       <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3684762594679063</v>
+        <v>1.4352700094407325</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>2</v>
@@ -7580,11 +7580,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="8" t="s">
@@ -7635,11 +7635,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
+        <f>_xlfn.STDEV.P(D13:M13)/SQRT(10)</f>
         <v>0</v>
       </c>
       <c r="T13" t="s">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="V13" s="12">
         <f>SUMIFS($O:$O,$B:$B,$T13,$C:$C,V$11)</f>
-        <v>23.093092237526548</v>
+        <v>24.220239470327289</v>
       </c>
       <c r="W13" s="12">
         <f>SUMIFS($N:$N,$B:$B,$T13,$C:$C,W$11)</f>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="X13" s="12">
         <f>SUMIFS($O:$O,$B:$B,$T13,$C:$C,X$11)</f>
-        <v>1.6448266004216239</v>
+        <v>1.7251086922278258</v>
       </c>
       <c r="Y13" s="13">
         <f>SUMIFS($N:$N,$B:$B,$T13,$C:$C,Y$11)</f>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="Z13" s="13">
         <f>SUMIFS($O:$O,$B:$B,$T13,$C:$C,Z$11)</f>
-        <v>1.1758474851545234E-3</v>
+        <v>1.2332392465286852E-3</v>
       </c>
       <c r="AA13">
         <f>Y13/0.1/0.1/PI()</f>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="AB13">
         <f>Z13/0.1/0.1/PI()</f>
-        <v>3.7428387916903276E-2</v>
+        <v>3.9255224419992955E-2</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -7719,31 +7719,31 @@
         <v>923</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>964.2</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>16.341136045964713</v>
+        <f t="shared" ref="O14:O37" si="2">_xlfn.STDEV.P(D14:M14)/SQRT(10)</f>
+        <v>17.138728074159996</v>
       </c>
       <c r="T14" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" ref="U14:U20" si="2">SUMIFS($N:$N,$B:$B,$T14,$C:$C,U$11)</f>
+        <f t="shared" ref="U14:U20" si="3">SUMIFS($N:$N,$B:$B,$T14,$C:$C,U$11)</f>
         <v>1098.2</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" ref="V14:V20" si="3">SUMIFS($O:$O,$B:$B,$T14,$C:$C,V$11)</f>
-        <v>21.066310405422016</v>
+        <f t="shared" ref="V14:V20" si="4">SUMIFS($O:$O,$B:$B,$T14,$C:$C,V$11)</f>
+        <v>22.094532751505543</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" ref="W14:W20" si="4">SUMIFS($N:$N,$B:$B,$T14,$C:$C,W$11)</f>
+        <f t="shared" ref="W14:W20" si="5">SUMIFS($N:$N,$B:$B,$T14,$C:$C,W$11)</f>
         <v>15.5</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" ref="X14:X20" si="5">SUMIFS($O:$O,$B:$B,$T14,$C:$C,X$11)</f>
-        <v>1.3351357170784823</v>
+        <f>SUMIFS($O:$O,$B:$B,$T14,$C:$C,X$11)</f>
+        <v>1.4003021535799116</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" ref="Y14:Y20" si="6">SUMIFS($N:$N,$B:$B,$T14,$C:$C,Y$11)</f>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="Z14" s="11">
         <f t="shared" ref="Z14:Z20" si="7">SUMIFS($O:$O,$B:$B,$T14,$C:$C,Z$11)</f>
-        <v>2.2147470210004913E-3</v>
+        <v>2.3228462720837999E-3</v>
       </c>
       <c r="AA14">
         <f t="shared" ref="AA14:AB20" si="8">Y14/0.1/0.1/PI()</f>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="8"/>
-        <v>7.0497587218055574E-2</v>
+        <v>7.3938493248943679E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -7803,31 +7803,31 @@
         <v>12</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1969658611369309</v>
+        <f t="shared" si="2"/>
+        <v>1.2553883861180173</v>
       </c>
       <c r="T15" t="s">
         <v>7</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138.1</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="3"/>
-        <v>4.115270895755776</v>
+        <f t="shared" si="4"/>
+        <v>4.3161325280857623</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="5"/>
-        <v>0.19069251784911845</v>
+        <f t="shared" ref="X14:X20" si="9">SUMIFS($O:$O,$B:$B,$T15,$C:$C,X$11)</f>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="6"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="7"/>
-        <v>1.3194678577885712E-3</v>
+        <v>1.3838695641247688E-3</v>
       </c>
       <c r="AA15">
         <f t="shared" si="8"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="AB15">
         <f t="shared" si="8"/>
-        <v>4.1999966363585016E-2</v>
+        <v>4.4049936344976712E-2</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -7887,31 +7887,31 @@
         <v>1.300108342361864E-2</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5722783614100143E-2</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1847159750220651E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2425405971716703E-3</v>
       </c>
       <c r="T16" t="s">
         <v>9</v>
       </c>
       <c r="U16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="V16" s="12">
-        <f t="shared" si="3"/>
-        <v>3.2823071861463511</v>
+        <f t="shared" si="4"/>
+        <v>3.4425128192427654</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
       <c r="X16" s="12">
-        <f t="shared" si="5"/>
-        <v>0.53000857625994213</v>
+        <f t="shared" si="9"/>
+        <v>0.55587768438749174</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="6"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="7"/>
-        <v>3.1867225827054021E-3</v>
+        <v>3.3422628414050653E-3</v>
       </c>
       <c r="AA16">
         <f t="shared" si="8"/>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="AB16">
         <f t="shared" si="8"/>
-        <v>0.10143653026002719</v>
+        <v>0.1063875304643959</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -7971,31 +7971,31 @@
         <v>115</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133.1</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.115270895755776</v>
+        <f t="shared" si="2"/>
+        <v>4.3161325280857623</v>
       </c>
       <c r="T17" t="s">
         <v>6</v>
       </c>
       <c r="U17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186.9</v>
       </c>
       <c r="V17" s="12">
-        <f t="shared" si="3"/>
-        <v>4.1002755333398486</v>
+        <f t="shared" si="4"/>
+        <v>4.3004052593024209</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
       <c r="X17" s="12">
-        <f t="shared" si="5"/>
-        <v>0.80283588269674044</v>
+        <f t="shared" si="9"/>
+        <v>0.84202137740083538</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="6"/>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="7"/>
-        <v>5.4881823225296422E-3</v>
+        <v>5.7560541802401015E-3</v>
       </c>
       <c r="AA17">
         <f t="shared" si="8"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="AB17">
         <f t="shared" si="8"/>
-        <v>0.17469426904403021</v>
+        <v>0.18322089509799591</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -8055,31 +8055,31 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19069251784911845</v>
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="T18" t="s">
         <v>88</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172.2</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" si="3"/>
-        <v>5.8275209137333599</v>
+        <f t="shared" si="4"/>
+        <v>6.1119554972201815</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" si="5"/>
-        <v>0.13816985594155146</v>
+        <f t="shared" si="9"/>
+        <v>0.14491376746189438</v>
       </c>
       <c r="Y18" s="13">
         <f t="shared" si="6"/>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="Z18" s="13">
         <f t="shared" si="7"/>
-        <v>7.9809671652279702E-4</v>
+        <v>8.3705089798465472E-4</v>
       </c>
       <c r="AA18">
         <f t="shared" si="8"/>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="AB18">
         <f t="shared" si="8"/>
-        <v>2.5404207500002857E-2</v>
+        <v>2.6644157606753517E-2</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -8139,31 +8139,31 @@
         <v>8.6956521739130436E-3</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4537098722662872E-3</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3194678577885712E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.3838695641247688E-3</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1150.9000000000001</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" si="3"/>
-        <v>12.951272313771128</v>
+        <f t="shared" si="4"/>
+        <v>13.58340899774427</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="X19" s="12">
-        <f t="shared" si="5"/>
-        <v>0.19306145983268452</v>
+        <f t="shared" si="9"/>
+        <v>0.20248456731316586</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="6"/>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="7"/>
-        <v>1.6611513197239188E-4</v>
+        <v>1.7422302022759704E-4</v>
       </c>
       <c r="AA19">
         <f t="shared" si="8"/>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="AB19">
         <f t="shared" si="8"/>
-        <v>5.2876088751537429E-3</v>
+        <v>5.5456909739242666E-3</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -8223,31 +8223,31 @@
         <v>149</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160.80000000000001</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1617026483152459</v>
+        <f t="shared" si="2"/>
+        <v>3.3160217128360303</v>
       </c>
       <c r="T20" t="s">
         <v>85</v>
       </c>
       <c r="U20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2738.1</v>
       </c>
       <c r="V20" s="12">
-        <f t="shared" si="3"/>
-        <v>33.162259490955293</v>
+        <f t="shared" si="4"/>
+        <v>34.780871179428495</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.2</v>
       </c>
       <c r="X20" s="12">
-        <f t="shared" si="5"/>
-        <v>1.7827455842553146</v>
+        <f t="shared" si="9"/>
+        <v>1.8697593428032389</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="6"/>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="7"/>
-        <v>6.6226155806174615E-4</v>
+        <v>6.945857818981099E-4</v>
       </c>
       <c r="AA20">
         <f t="shared" si="8"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="AB20">
         <f t="shared" si="8"/>
-        <v>2.1080440117053428E-2</v>
+        <v>2.2109352118086657E-2</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -8307,12 +8307,12 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.53000857625994213</v>
+        <f t="shared" si="2"/>
+        <v>0.55587768438749174</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
@@ -8356,12 +8356,12 @@
         <v>6.7114093959731542E-3</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7868484615679969E-2</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1867225827054021E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.3422628414050653E-3</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -8405,12 +8405,12 @@
         <v>147</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156.9</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7317992738719425</v>
+        <f t="shared" si="2"/>
+        <v>2.8651352498616887</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -8454,12 +8454,12 @@
         <v>10</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.80283588269674044</v>
+        <f t="shared" si="2"/>
+        <v>0.84202137740083538</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
@@ -8503,23 +8503,23 @@
         <v>6.8027210884353748E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0269903506119104E-2</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4881823225296422E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.7560541802401015E-3</v>
       </c>
       <c r="T25" t="s">
         <v>89</v>
       </c>
       <c r="U25" t="str">
         <f>ROUND(U13,1)&amp;" ± "&amp;ROUND(V13,1)</f>
-        <v>1415 ± 23.1</v>
+        <v>1415 ± 24.2</v>
       </c>
       <c r="W25" t="str">
         <f>ROUND(W13,1)&amp;" ± "&amp;ROUND(X13,1)</f>
-        <v>22.2 ± 1.6</v>
+        <v>22.2 ± 1.7</v>
       </c>
       <c r="Y25" t="str">
         <f>ROUND(Y13,3)&amp;" ± "&amp;ROUND(Z13,3)</f>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="AA25" t="str">
         <f>ROUND(AA13,3)&amp;" ± "&amp;ROUND(AB13,3)</f>
-        <v>0.5 ± 0.037</v>
+        <v>0.5 ± 0.039</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -8571,31 +8571,31 @@
         <v>1165</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1150.9000000000001</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="1"/>
-        <v>12.951272313771128</v>
+        <f t="shared" si="2"/>
+        <v>13.58340899774427</v>
       </c>
       <c r="T26" t="s">
         <v>4</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" ref="U26:W32" si="9">ROUND(U14,1)&amp;" ± "&amp;ROUND(V14,1)</f>
-        <v>1098.2 ± 21.1</v>
+        <f t="shared" ref="U26:W32" si="10">ROUND(U14,1)&amp;" ± "&amp;ROUND(V14,1)</f>
+        <v>1098.2 ± 22.1</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="9"/>
-        <v>15.5 ± 1.3</v>
+        <f t="shared" si="10"/>
+        <v>15.5 ± 1.4</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:AA32" si="10">ROUND(Y14,3)&amp;" ± "&amp;ROUND(Z14,3)</f>
+        <f t="shared" ref="Y26:AA32" si="11">ROUND(Y14,3)&amp;" ± "&amp;ROUND(Z14,3)</f>
         <v>0.018 ± 0.002</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="10"/>
-        <v>0.571 ± 0.07</v>
+        <f t="shared" si="11"/>
+        <v>0.571 ± 0.074</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -8639,31 +8639,31 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19306145983268452</v>
+        <f t="shared" si="2"/>
+        <v>0.20248456731316586</v>
       </c>
       <c r="T27" t="s">
         <v>7</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="9"/>
-        <v>138.1 ± 4.1</v>
+        <f t="shared" si="10"/>
+        <v>138.1 ± 4.3</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1 ± 0.2</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.007 ± 0.001</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="10"/>
-        <v>0.237 ± 0.042</v>
+        <f t="shared" si="11"/>
+        <v>0.237 ± 0.044</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -8707,31 +8707,31 @@
         <v>8.5836909871244631E-4</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1048499704993589E-4</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6611513197239188E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.7422302022759704E-4</v>
       </c>
       <c r="T28" t="s">
         <v>9</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="9"/>
-        <v>164 ± 3.3</v>
+        <f t="shared" si="10"/>
+        <v>164 ± 3.4</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="9"/>
-        <v>2.9 ± 0.5</v>
+        <f t="shared" si="10"/>
+        <v>2.9 ± 0.6</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.018 ± 0.003</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="10"/>
-        <v>0.569 ± 0.101</v>
+        <f t="shared" si="11"/>
+        <v>0.569 ± 0.106</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -8749,39 +8749,39 @@
         <v>1537</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:M30" si="11">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
+        <f t="shared" ref="E29:M30" si="12">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
         <v>1464</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1487</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1361</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1362</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1302</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1516</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1391</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1396</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1334</v>
       </c>
       <c r="N29" s="10">
@@ -8789,27 +8789,27 @@
         <v>1415</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="1"/>
-        <v>23.093092237526548</v>
+        <f t="shared" si="2"/>
+        <v>24.220239470327289</v>
       </c>
       <c r="T29" t="s">
         <v>6</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="9"/>
-        <v>186.9 ± 4.1</v>
+        <f t="shared" si="10"/>
+        <v>186.9 ± 4.3</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1 ± 0.8</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="10"/>
-        <v>0.02 ± 0.005</v>
+        <f t="shared" si="11"/>
+        <v>0.02 ± 0.006</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="10"/>
-        <v>0.645 ± 0.175</v>
+        <f t="shared" si="11"/>
+        <v>0.645 ± 0.183</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -8827,67 +8827,67 @@
         <v>21</v>
       </c>
       <c r="E30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="F30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="I30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="K30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="L30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="M30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6448266004216239</v>
+        <f>_xlfn.STDEV.P(D30:M30)/SQRT(10)</f>
+        <v>1.7251086922278258</v>
       </c>
       <c r="T30" t="s">
         <v>88</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="9"/>
-        <v>172.2 ± 5.8</v>
+        <f t="shared" si="10"/>
+        <v>172.2 ± 6.1</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3 ± 0.1</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.002 ± 0.001</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="10"/>
-        <v>0.055 ± 0.025</v>
+        <f t="shared" si="11"/>
+        <v>0.055 ± 0.027</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -8905,67 +8905,67 @@
         <v>1.3662979830839297E-2</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:M31" si="12">E30/E29</f>
+        <f t="shared" ref="E31:M31" si="13">E30/E29</f>
         <v>1.5027322404371584E-2</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4149293880295901E-3</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6164584864070537E-2</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1013215859030838E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3056835637480798E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7810026385224276E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2286125089863409E-2</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0773638968481375E-2</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7991004497751123E-2</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5720066292514281E-2</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1758474851545234E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2332392465286852E-3</v>
       </c>
       <c r="T31" t="s">
         <v>80</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="9"/>
-        <v>1150.9 ± 13</v>
+        <f t="shared" si="10"/>
+        <v>1150.9 ± 13.6</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.7 ± 0.2</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.001 ± 0</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="10"/>
-        <v>0.019 ± 0.005</v>
+        <f t="shared" si="11"/>
+        <v>0.019 ± 0.006</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -8979,71 +8979,71 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:M33" si="13">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
+        <f t="shared" ref="D32:M33" si="14">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
         <v>180</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>169</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="G32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>196</v>
       </c>
       <c r="H32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
       <c r="I32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>159</v>
       </c>
       <c r="J32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>154</v>
       </c>
       <c r="K32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>149</v>
       </c>
       <c r="L32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>171</v>
       </c>
       <c r="M32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.2</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="1"/>
-        <v>5.8275209137333599</v>
+        <f t="shared" si="2"/>
+        <v>6.1119554972201815</v>
       </c>
       <c r="T32" t="s">
         <v>85</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="9"/>
-        <v>2738.1 ± 33.2</v>
+        <f t="shared" si="10"/>
+        <v>2738.1 ± 34.8</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="9"/>
-        <v>23.2 ± 1.8</v>
+        <f t="shared" si="10"/>
+        <v>23.2 ± 1.9</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.008 ± 0.001</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="10"/>
-        <v>0.27 ± 0.021</v>
+        <f t="shared" si="11"/>
+        <v>0.27 ± 0.022</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -9057,52 +9057,52 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13816985594155146</v>
+        <f t="shared" si="2"/>
+        <v>0.14491376746189438</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -9120,48 +9120,48 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="14">E33/E32</f>
+        <f t="shared" ref="E34" si="15">E33/E32</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="15">F33/F32</f>
+        <f t="shared" ref="F34" si="16">F33/F32</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="16">G33/G32</f>
+        <f t="shared" ref="G34" si="17">G33/G32</f>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="17">H33/H32</f>
+        <f t="shared" ref="H34" si="18">H33/H32</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="18">I33/I32</f>
+        <f t="shared" ref="I34" si="19">I33/I32</f>
         <v>6.2893081761006293E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="19">J33/J32</f>
+        <f t="shared" ref="J34" si="20">J33/J32</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34" si="20">K33/K32</f>
+        <f t="shared" ref="K34" si="21">K33/K32</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="21">L33/L32</f>
+        <f t="shared" ref="L34" si="22">L33/L32</f>
         <v>5.8479532163742687E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34" si="22">M33/M32</f>
+        <f t="shared" ref="M34" si="23">M33/M32</f>
         <v>0</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.723930220880143E-3</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="1"/>
-        <v>7.9809671652279702E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.3705089798465472E-4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -9176,48 +9176,48 @@
         <v>2869</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:M36" si="23">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
+        <f t="shared" ref="E35:M36" si="24">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
         <v>2740</v>
       </c>
       <c r="F35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2913</v>
       </c>
       <c r="G35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2714</v>
       </c>
       <c r="H35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2659</v>
       </c>
       <c r="I35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2554</v>
       </c>
       <c r="J35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2853</v>
       </c>
       <c r="K35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2631</v>
       </c>
       <c r="L35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2785</v>
       </c>
       <c r="M35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2663</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" ref="N35:N37" si="24">AVERAGE(D35:M35)</f>
+        <f t="shared" ref="N35:N37" si="25">AVERAGE(D35:M35)</f>
         <v>2738.1</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" ref="O35:O37" si="25">_xlfn.STDEV.P(D35:N35)/SQRT(10)</f>
-        <v>33.162259490955293</v>
+      <c r="O35" s="2">
+        <f t="shared" si="2"/>
+        <v>34.780871179428495</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -9232,48 +9232,48 @@
         <v>21</v>
       </c>
       <c r="E36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="F36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="G36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="I36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="J36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="L36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>31</v>
       </c>
       <c r="M36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.2</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="25"/>
-        <v>1.7827455842553146</v>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8697593428032389</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -9324,12 +9324,12 @@
         <v>9.3879083740142696E-3</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.4921313966661843E-3</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="25"/>
-        <v>6.6226155806174615E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.945857818981099E-4</v>
       </c>
     </row>
   </sheetData>
@@ -9338,5 +9338,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="96">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>混淆林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林&gt;=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1195,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6964,8 +6976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="R13" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7643,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U13" s="12">
         <f>SUMIFS($N:$N,$B:$B,$T13,$C:$C,U$11)</f>
@@ -7730,36 +7742,36 @@
         <v>4</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" ref="U14:U20" si="3">SUMIFS($N:$N,$B:$B,$T14,$C:$C,U$11)</f>
-        <v>1098.2</v>
+        <f>SUMIFS($N:$N,$B:$B,$T14,$C:$C,U$11, $A:$A,"Y")</f>
+        <v>964.2</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" ref="V14:V20" si="4">SUMIFS($O:$O,$B:$B,$T14,$C:$C,V$11)</f>
-        <v>22.094532751505543</v>
+        <f>SUMIFS($O:$O,$B:$B,$T14,$C:$C,V$11,$A:$A,"Y")</f>
+        <v>17.138728074159996</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" ref="W14:W20" si="5">SUMIFS($N:$N,$B:$B,$T14,$C:$C,W$11)</f>
-        <v>15.5</v>
+        <f>SUMIFS($N:$N,$B:$B,$T14,$C:$C,W$11, $A:$A,"Y")</f>
+        <v>15.2</v>
       </c>
       <c r="X14" s="12">
-        <f>SUMIFS($O:$O,$B:$B,$T14,$C:$C,X$11)</f>
-        <v>1.4003021535799116</v>
+        <f>SUMIFS($O:$O,$B:$B,$T14,$C:$C,X$11,$A:$A,"Y")</f>
+        <v>1.2553883861180173</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" ref="Y14:Y20" si="6">SUMIFS($N:$N,$B:$B,$T14,$C:$C,Y$11)</f>
-        <v>1.7946619138806207E-2</v>
+        <f>SUMIFS($N:$N,$B:$B,$T14,$C:$C,Y$11,$A:$A,"Y")</f>
+        <v>1.5722783614100143E-2</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" ref="Z14:Z20" si="7">SUMIFS($O:$O,$B:$B,$T14,$C:$C,Z$11)</f>
-        <v>2.3228462720837999E-3</v>
+        <f>SUMIFS($O:$O,$B:$B,$T14,$C:$C,Z$11,$A:$A,"Y")</f>
+        <v>1.2425405971716703E-3</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14:AB20" si="8">Y14/0.1/0.1/PI()</f>
-        <v>0.57125862954572426</v>
+        <f t="shared" ref="AA14:AB20" si="3">Y14/0.1/0.1/PI()</f>
+        <v>0.50047174626965851</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="8"/>
-        <v>7.3938493248943679E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9551295606445366E-2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -7814,35 +7826,35 @@
         <v>7</v>
       </c>
       <c r="U15" s="12">
+        <f t="shared" ref="U15:U17" si="4">SUMIFS($N:$N,$B:$B,$T15,$C:$C,U$11, $A:$A,"Y")</f>
+        <v>133.1</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" ref="V15:V17" si="5">SUMIFS($O:$O,$B:$B,$T15,$C:$C,V$11,$A:$A,"Y")</f>
+        <v>4.3161325280857623</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" ref="W15:W17" si="6">SUMIFS($N:$N,$B:$B,$T15,$C:$C,W$11, $A:$A,"Y")</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" ref="X15:X17" si="7">SUMIFS($O:$O,$B:$B,$T15,$C:$C,X$11,$A:$A,"Y")</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" ref="Y15:Y17" si="8">SUMIFS($N:$N,$B:$B,$T15,$C:$C,Y$11,$A:$A,"Y")</f>
+        <v>7.4537098722662872E-3</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" ref="Z15:Z17" si="9">SUMIFS($O:$O,$B:$B,$T15,$C:$C,Z$11,$A:$A,"Y")</f>
+        <v>1.3838695641247688E-3</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="3"/>
-        <v>138.1</v>
-      </c>
-      <c r="V15" s="12">
-        <f t="shared" si="4"/>
-        <v>4.3161325280857623</v>
-      </c>
-      <c r="W15" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="12">
-        <f t="shared" ref="X14:X20" si="9">SUMIFS($O:$O,$B:$B,$T15,$C:$C,X$11)</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="Y15" s="11">
-        <f t="shared" si="6"/>
-        <v>7.4537098722662872E-3</v>
-      </c>
-      <c r="Z15" s="11">
-        <f t="shared" si="7"/>
-        <v>1.3838695641247688E-3</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="8"/>
         <v>0.23725895410880787</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4.4049936344976712E-2</v>
       </c>
     </row>
@@ -7895,39 +7907,39 @@
         <v>1.2425405971716703E-3</v>
       </c>
       <c r="T16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="U16" s="12">
+        <f t="shared" si="4"/>
+        <v>156.9</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="5"/>
+        <v>2.8651352498616887</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="6"/>
+        <v>3.1</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="7"/>
+        <v>0.84202137740083538</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="8"/>
+        <v>2.0269903506119104E-2</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="9"/>
+        <v>5.7560541802401015E-3</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="V16" s="12">
-        <f t="shared" si="4"/>
-        <v>3.4425128192427654</v>
-      </c>
-      <c r="W16" s="12">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="X16" s="12">
-        <f t="shared" si="9"/>
-        <v>0.55587768438749174</v>
-      </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="6"/>
-        <v>1.7868484615679969E-2</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="7"/>
-        <v>3.3422628414050653E-3</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="8"/>
-        <v>0.56877153042939055</v>
+        <v>0.64521106779891912</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="8"/>
-        <v>0.1063875304643959</v>
+        <f t="shared" si="3"/>
+        <v>0.18322089509799591</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -7979,39 +7991,39 @@
         <v>4.3161325280857623</v>
       </c>
       <c r="T17" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="U17" s="12">
+        <f t="shared" si="4"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="V17" s="12">
+        <f t="shared" si="5"/>
+        <v>3.3160217128360303</v>
+      </c>
+      <c r="W17" s="12">
+        <f t="shared" si="6"/>
+        <v>2.9</v>
+      </c>
+      <c r="X17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.55587768438749174</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="8"/>
+        <v>1.7868484615679969E-2</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="9"/>
+        <v>3.3422628414050653E-3</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="3"/>
-        <v>186.9</v>
-      </c>
-      <c r="V17" s="12">
-        <f t="shared" si="4"/>
-        <v>4.3004052593024209</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" si="5"/>
-        <v>3.1</v>
-      </c>
-      <c r="X17" s="12">
-        <f t="shared" si="9"/>
-        <v>0.84202137740083538</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" si="6"/>
-        <v>2.0269903506119104E-2</v>
-      </c>
-      <c r="Z17" s="11">
-        <f t="shared" si="7"/>
-        <v>5.7560541802401015E-3</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="8"/>
-        <v>0.64521106779891912</v>
+        <v>0.56877153042939055</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="8"/>
-        <v>0.18322089509799591</v>
+        <f t="shared" si="3"/>
+        <v>0.1063875304643959</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -8066,35 +8078,35 @@
         <v>88</v>
       </c>
       <c r="U18" s="12">
+        <f t="shared" ref="U14:U20" si="10">SUMIFS($N:$N,$B:$B,$T18,$C:$C,U$11)</f>
+        <v>172.2</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" ref="V14:V20" si="11">SUMIFS($O:$O,$B:$B,$T18,$C:$C,V$11)</f>
+        <v>6.1119554972201815</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" ref="W14:W20" si="12">SUMIFS($N:$N,$B:$B,$T18,$C:$C,W$11)</f>
+        <v>0.3</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" ref="X15:X20" si="13">SUMIFS($O:$O,$B:$B,$T18,$C:$C,X$11)</f>
+        <v>0.14491376746189438</v>
+      </c>
+      <c r="Y18" s="13">
+        <f t="shared" ref="Y14:Y20" si="14">SUMIFS($N:$N,$B:$B,$T18,$C:$C,Y$11)</f>
+        <v>1.723930220880143E-3</v>
+      </c>
+      <c r="Z18" s="13">
+        <f t="shared" ref="Z14:Z20" si="15">SUMIFS($O:$O,$B:$B,$T18,$C:$C,Z$11)</f>
+        <v>8.3705089798465472E-4</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="3"/>
-        <v>172.2</v>
-      </c>
-      <c r="V18" s="12">
-        <f t="shared" si="4"/>
-        <v>6.1119554972201815</v>
-      </c>
-      <c r="W18" s="12">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="9"/>
-        <v>0.14491376746189438</v>
-      </c>
-      <c r="Y18" s="13">
-        <f t="shared" si="6"/>
-        <v>1.723930220880143E-3</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="7"/>
-        <v>8.3705089798465472E-4</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="8"/>
         <v>5.4874403239715534E-2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2.6644157606753517E-2</v>
       </c>
     </row>
@@ -8150,35 +8162,35 @@
         <v>80</v>
       </c>
       <c r="U19" s="12">
+        <f>SUMIFS($N:$N,$B:$B,$T19,$C:$C,U$11)</f>
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" si="11"/>
+        <v>13.58340899774427</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" si="13"/>
+        <v>0.20248456731316586</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="14"/>
+        <v>6.1048499704993589E-4</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="15"/>
+        <v>1.7422302022759704E-4</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="3"/>
-        <v>1150.9000000000001</v>
-      </c>
-      <c r="V19" s="12">
-        <f t="shared" si="4"/>
-        <v>13.58340899774427</v>
-      </c>
-      <c r="W19" s="12">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="X19" s="12">
-        <f t="shared" si="9"/>
-        <v>0.20248456731316586</v>
-      </c>
-      <c r="Y19" s="11">
-        <f t="shared" si="6"/>
-        <v>6.1048499704993589E-4</v>
-      </c>
-      <c r="Z19" s="11">
-        <f t="shared" si="7"/>
-        <v>1.7422302022759704E-4</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="8"/>
         <v>1.9432340992787688E-2</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>5.5456909739242666E-3</v>
       </c>
     </row>
@@ -8234,35 +8246,35 @@
         <v>85</v>
       </c>
       <c r="U20" s="12">
+        <f t="shared" si="10"/>
+        <v>2738.1</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" si="11"/>
+        <v>34.780871179428495</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="12"/>
+        <v>23.2</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="13"/>
+        <v>1.8697593428032389</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" si="14"/>
+        <v>8.4921313966661843E-3</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="15"/>
+        <v>6.945857818981099E-4</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="3"/>
-        <v>2738.1</v>
-      </c>
-      <c r="V20" s="12">
-        <f t="shared" si="4"/>
-        <v>34.780871179428495</v>
-      </c>
-      <c r="W20" s="12">
-        <f t="shared" si="5"/>
-        <v>23.2</v>
-      </c>
-      <c r="X20" s="12">
-        <f t="shared" si="9"/>
-        <v>1.8697593428032389</v>
-      </c>
-      <c r="Y20" s="11">
-        <f t="shared" si="6"/>
-        <v>8.4921313966661843E-3</v>
-      </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="7"/>
-        <v>6.945857818981099E-4</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="8"/>
         <v>0.27031293783306082</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>2.2109352118086657E-2</v>
       </c>
     </row>
@@ -8582,20 +8594,20 @@
         <v>4</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" ref="U26:W32" si="10">ROUND(U14,1)&amp;" ± "&amp;ROUND(V14,1)</f>
-        <v>1098.2 ± 22.1</v>
+        <f t="shared" ref="U26:W32" si="16">ROUND(U14,1)&amp;" ± "&amp;ROUND(V14,1)</f>
+        <v>964.2 ± 17.1</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="10"/>
-        <v>15.5 ± 1.4</v>
+        <f t="shared" si="16"/>
+        <v>15.2 ± 1.3</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:AA32" si="11">ROUND(Y14,3)&amp;" ± "&amp;ROUND(Z14,3)</f>
-        <v>0.018 ± 0.002</v>
+        <f t="shared" ref="Y26:AA32" si="17">ROUND(Y14,3)&amp;" ± "&amp;ROUND(Z14,3)</f>
+        <v>0.016 ± 0.001</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="11"/>
-        <v>0.571 ± 0.074</v>
+        <f t="shared" si="17"/>
+        <v>0.5 ± 0.04</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -8650,19 +8662,19 @@
         <v>7</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="10"/>
-        <v>138.1 ± 4.3</v>
+        <f t="shared" si="16"/>
+        <v>133.1 ± 4.3</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1 ± 0.2</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.007 ± 0.001</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.237 ± 0.044</v>
       </c>
     </row>
@@ -8715,23 +8727,23 @@
         <v>1.7422302022759704E-4</v>
       </c>
       <c r="T28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="10"/>
-        <v>164 ± 3.4</v>
+        <f t="shared" si="16"/>
+        <v>156.9 ± 2.9</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="10"/>
-        <v>2.9 ± 0.6</v>
+        <f t="shared" si="16"/>
+        <v>3.1 ± 0.8</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="11"/>
-        <v>0.018 ± 0.003</v>
+        <f t="shared" si="17"/>
+        <v>0.02 ± 0.006</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="11"/>
-        <v>0.569 ± 0.106</v>
+        <f t="shared" si="17"/>
+        <v>0.645 ± 0.183</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -8749,39 +8761,39 @@
         <v>1537</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:M30" si="12">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
+        <f t="shared" ref="E29:M30" si="18">SUMIFS(E$2:E$28,$A$2:$A$28,$A29,$C$2:$C$28,$C29)</f>
         <v>1464</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1487</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1361</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1362</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1302</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1516</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1391</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1396</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1334</v>
       </c>
       <c r="N29" s="10">
@@ -8793,23 +8805,23 @@
         <v>24.220239470327289</v>
       </c>
       <c r="T29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="10"/>
-        <v>186.9 ± 4.3</v>
+        <f t="shared" si="16"/>
+        <v>160.8 ± 3.3</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="10"/>
-        <v>3.1 ± 0.8</v>
+        <f t="shared" si="16"/>
+        <v>2.9 ± 0.6</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="11"/>
-        <v>0.02 ± 0.006</v>
+        <f t="shared" si="17"/>
+        <v>0.018 ± 0.003</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="11"/>
-        <v>0.645 ± 0.183</v>
+        <f t="shared" si="17"/>
+        <v>0.569 ± 0.106</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -8827,39 +8839,39 @@
         <v>21</v>
       </c>
       <c r="E30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="F30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="G30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="I30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="L30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="M30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="N30">
@@ -8874,19 +8886,19 @@
         <v>88</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>172.2 ± 6.1</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.3 ± 0.1</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.002 ± 0.001</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.055 ± 0.027</v>
       </c>
     </row>
@@ -8905,39 +8917,39 @@
         <v>1.3662979830839297E-2</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:M31" si="13">E30/E29</f>
+        <f t="shared" ref="E31:M31" si="19">E30/E29</f>
         <v>1.5027322404371584E-2</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9.4149293880295901E-3</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.6164584864070537E-2</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1013215859030838E-2</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.3056835637480798E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.7810026385224276E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.2286125089863409E-2</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.0773638968481375E-2</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.7991004497751123E-2</v>
       </c>
       <c r="N31" s="14">
@@ -8952,19 +8964,19 @@
         <v>80</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1150.9 ± 13.6</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.7 ± 0.2</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.001 ± 0</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.019 ± 0.006</v>
       </c>
     </row>
@@ -8979,43 +8991,43 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:M33" si="14">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
+        <f t="shared" ref="D32:M33" si="20">SUMIFS(D$2:D$28,$A$2:$A$28,$A32,$C$2:$C$28,$C32)</f>
         <v>180</v>
       </c>
       <c r="E32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>169</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>216</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>196</v>
       </c>
       <c r="H32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="I32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>159</v>
       </c>
       <c r="J32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>154</v>
       </c>
       <c r="K32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="L32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>171</v>
       </c>
       <c r="M32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="N32">
@@ -9030,19 +9042,19 @@
         <v>85</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2738.1 ± 34.8</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23.2 ± 1.9</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.008 ± 0.001</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.27 ± 0.022</v>
       </c>
     </row>
@@ -9057,43 +9069,43 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N33">
@@ -9120,39 +9132,39 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="15">E33/E32</f>
+        <f t="shared" ref="E34" si="21">E33/E32</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="16">F33/F32</f>
+        <f t="shared" ref="F34" si="22">F33/F32</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="17">G33/G32</f>
+        <f t="shared" ref="G34" si="23">G33/G32</f>
         <v>5.1020408163265302E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="18">H33/H32</f>
+        <f t="shared" ref="H34" si="24">H33/H32</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="19">I33/I32</f>
+        <f t="shared" ref="I34" si="25">I33/I32</f>
         <v>6.2893081761006293E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="20">J33/J32</f>
+        <f t="shared" ref="J34" si="26">J33/J32</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34" si="21">K33/K32</f>
+        <f t="shared" ref="K34" si="27">K33/K32</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="22">L33/L32</f>
+        <f t="shared" ref="L34" si="28">L33/L32</f>
         <v>5.8479532163742687E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34" si="23">M33/M32</f>
+        <f t="shared" ref="M34" si="29">M33/M32</f>
         <v>0</v>
       </c>
       <c r="N34" s="14">
@@ -9176,43 +9188,43 @@
         <v>2869</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:M36" si="24">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
+        <f t="shared" ref="E35:M36" si="30">SUMIF($C$2:$C$28,$C35,E$2:E$28)</f>
         <v>2740</v>
       </c>
       <c r="F35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2913</v>
       </c>
       <c r="G35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2714</v>
       </c>
       <c r="H35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2659</v>
       </c>
       <c r="I35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2554</v>
       </c>
       <c r="J35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2853</v>
       </c>
       <c r="K35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2631</v>
       </c>
       <c r="L35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2785</v>
       </c>
       <c r="M35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2663</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" ref="N35:N37" si="25">AVERAGE(D35:M35)</f>
+        <f t="shared" ref="N35:N37" si="31">AVERAGE(D35:M35)</f>
         <v>2738.1</v>
       </c>
       <c r="O35" s="2">
@@ -9232,43 +9244,43 @@
         <v>21</v>
       </c>
       <c r="E36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="F36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="G36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="H36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="I36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="J36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>32</v>
       </c>
       <c r="L36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="M36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>23.2</v>
       </c>
       <c r="O36" s="2">
@@ -9288,43 +9300,43 @@
         <v>7.3196235622168E-3</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:M37" si="26">E36/E35</f>
+        <f t="shared" ref="E37:M37" si="32">E36/E35</f>
         <v>8.3941605839416063E-3</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.8060418812221079E-3</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.6412185031966908E-3</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.4393108848864525E-3</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0164738871363477E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.2162675788673508E-2</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.1131059245960502E-2</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.3879083740142696E-3</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>8.4921313966661843E-3</v>
       </c>
       <c r="O37" s="2">

--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -6976,8 +6976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7910,7 +7910,7 @@
         <v>94</v>
       </c>
       <c r="U16" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($N:$N,$B:$B,$T16,$C:$C,U$11, $A:$A,"Y")</f>
         <v>156.9</v>
       </c>
       <c r="V16" s="12">
@@ -8078,27 +8078,27 @@
         <v>88</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" ref="U14:U20" si="10">SUMIFS($N:$N,$B:$B,$T18,$C:$C,U$11)</f>
+        <f t="shared" ref="U18:U20" si="10">SUMIFS($N:$N,$B:$B,$T18,$C:$C,U$11)</f>
         <v>172.2</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" ref="V14:V20" si="11">SUMIFS($O:$O,$B:$B,$T18,$C:$C,V$11)</f>
+        <f t="shared" ref="V18:V20" si="11">SUMIFS($O:$O,$B:$B,$T18,$C:$C,V$11)</f>
         <v>6.1119554972201815</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" ref="W14:W20" si="12">SUMIFS($N:$N,$B:$B,$T18,$C:$C,W$11)</f>
+        <f t="shared" ref="W18:W20" si="12">SUMIFS($N:$N,$B:$B,$T18,$C:$C,W$11)</f>
         <v>0.3</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" ref="X15:X20" si="13">SUMIFS($O:$O,$B:$B,$T18,$C:$C,X$11)</f>
+        <f t="shared" ref="X18:X20" si="13">SUMIFS($O:$O,$B:$B,$T18,$C:$C,X$11)</f>
         <v>0.14491376746189438</v>
       </c>
       <c r="Y18" s="13">
-        <f t="shared" ref="Y14:Y20" si="14">SUMIFS($N:$N,$B:$B,$T18,$C:$C,Y$11)</f>
+        <f t="shared" ref="Y18:Y20" si="14">SUMIFS($N:$N,$B:$B,$T18,$C:$C,Y$11)</f>
         <v>1.723930220880143E-3</v>
       </c>
       <c r="Z18" s="13">
-        <f t="shared" ref="Z14:Z20" si="15">SUMIFS($O:$O,$B:$B,$T18,$C:$C,Z$11)</f>
+        <f t="shared" ref="Z18:Z20" si="15">SUMIFS($O:$O,$B:$B,$T18,$C:$C,Z$11)</f>
         <v>8.3705089798465472E-4</v>
       </c>
       <c r="AA18">
@@ -8730,7 +8730,7 @@
         <v>6</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="16"/>
+        <f>ROUND(U16,1)&amp;" ± "&amp;ROUND(V16,1)</f>
         <v>156.9 ± 2.9</v>
       </c>
       <c r="W28" t="str">

--- a/result/tables_200511.xlsx
+++ b/result/tables_200511.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6974,10 +6974,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6990,7 +6990,7 @@
     <col min="23" max="26" width="9.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>4.9558046773455464</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>0.14491376746189438</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1.0803056749121296E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0.12649110640673517</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7605,8 +7605,12 @@
       <c r="V12" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE12">
+        <f>AA13-1.96*AB13</f>
+        <v>0.42344501137400026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -7689,8 +7693,12 @@
         <f>Z13/0.1/0.1/PI()</f>
         <v>3.9255224419992955E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE13">
+        <f>AA13+1.96*AB13</f>
+        <v>0.57732549110037268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -7774,7 +7782,7 @@
         <v>3.9551295606445366E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -7858,7 +7866,7 @@
         <v>4.4049936344976712E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -8953,7 +8961,7 @@
         <v>1.7991004497751123E-2</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D31:M31)</f>
         <v>1.5720066292514281E-2</v>
       </c>
       <c r="O31" s="2">
@@ -9035,7 +9043,7 @@
         <v>172.2</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
+        <f>_xlfn.STDEV.P(D32:M32)/SQRT(10)</f>
         <v>6.1119554972201815</v>
       </c>
       <c r="T32" t="s">
